--- a/ArticleManage/main_working_folder/output_folders/Data 93 Adsorption of methylene blue/Data93_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 93 Adsorption of methylene blue/Data93_all_graphs_excel.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Default Dataset" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 Default Dataset  0-1-0" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -97,7 +97,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki Default Dataset</a:t>
+              <a:t>Izoterma adsorpcji probki Default z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -156,12 +156,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Default Dataset'!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 Default Dataset  0-1-0'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Default Dataset'!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 Default Dataset  0-1-0'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -174,6 +174,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -243,6 +245,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 93 Adsorption of methylene blue/Data93_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 93 Adsorption of methylene blue/Data93_all_graphs_excel.xlsx
@@ -1271,7 +1271,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1292,437 +1292,309 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0083</v>
+        <v>0.9965</v>
       </c>
       <c r="B3" s="0">
-        <v>487.3954</v>
+        <v>855.9201</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0257</v>
+        <v>0.9033</v>
       </c>
       <c r="B4" s="0">
-        <v>563.7034</v>
+        <v>830.2425</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0485</v>
+        <v>0.8902</v>
       </c>
       <c r="B5" s="0">
-        <v>611.0746</v>
+        <v>830.2425</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0763</v>
+        <v>0.8053</v>
       </c>
       <c r="B6" s="0">
-        <v>638.8542</v>
+        <v>815.9772</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1042</v>
+        <v>0.7056</v>
       </c>
       <c r="B7" s="0">
-        <v>657.9112</v>
+        <v>803.1384</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.132</v>
+        <v>0.6042</v>
       </c>
       <c r="B8" s="0">
-        <v>673.6499</v>
+        <v>776.0342</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.2433</v>
+        <v>0.4923</v>
       </c>
       <c r="B9" s="0">
-        <v>711.2899</v>
+        <v>763.1954</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.2711</v>
+        <v>0.4016</v>
       </c>
       <c r="B10" s="0">
-        <v>718.4955</v>
+        <v>748.9301</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.3267</v>
+        <v>0.3084</v>
       </c>
       <c r="B11" s="0">
-        <v>732.1483</v>
+        <v>728.9586</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.3545</v>
+        <v>0.2929</v>
       </c>
       <c r="B12" s="0">
-        <v>737.837</v>
+        <v>727.5321</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.3823</v>
+        <v>0.2577</v>
       </c>
       <c r="B13" s="0">
-        <v>743.81</v>
+        <v>713.2668</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.4379</v>
+        <v>0.2046</v>
       </c>
       <c r="B14" s="0">
-        <v>754.3341</v>
+        <v>700.428</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.4657</v>
+        <v>0.1907</v>
       </c>
       <c r="B15" s="0">
-        <v>758.3161</v>
+        <v>697.5749</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.5214</v>
+        <v>0.1514</v>
       </c>
       <c r="B16" s="0">
-        <v>767.8921</v>
+        <v>680.4565</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.5492</v>
+        <v>0.1114</v>
       </c>
       <c r="B17" s="0">
-        <v>773.3279</v>
+        <v>664.7646</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.577</v>
+        <v>0.1024</v>
       </c>
       <c r="B18" s="0">
-        <v>778.1</v>
+        <v>659.0585</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.6048</v>
+        <v>0.0893</v>
       </c>
       <c r="B19" s="0">
-        <v>780.5967</v>
+        <v>650.4993</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.6326</v>
+        <v>0.0795</v>
       </c>
       <c r="B20" s="0">
-        <v>789.3193</v>
+        <v>643.3666</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.6604</v>
+        <v>0.0697</v>
       </c>
       <c r="B21" s="0">
-        <v>793.9967</v>
+        <v>633.3809</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.6882</v>
+        <v>0.0549</v>
       </c>
       <c r="B22" s="0">
-        <v>798.3264</v>
+        <v>624.8217</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.716</v>
+        <v>0.0443</v>
       </c>
       <c r="B23" s="0">
-        <v>802.4981</v>
+        <v>607.7033</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.7438</v>
+        <v>0.0345</v>
       </c>
       <c r="B24" s="0">
-        <v>808.4712</v>
+        <v>590.5849</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.7716</v>
+        <v>0.0246</v>
       </c>
       <c r="B25" s="0">
-        <v>812.8325</v>
+        <v>570.6134</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.7995</v>
+        <v>0.0131</v>
       </c>
       <c r="B26" s="0">
-        <v>815.6768</v>
+        <v>524.9643</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.8273</v>
+        <v>0.0082</v>
       </c>
       <c r="B27" s="0">
-        <v>822.124</v>
+        <v>500.7133</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.8551</v>
+        <v>0.0057</v>
       </c>
       <c r="B28" s="0">
-        <v>826.7697</v>
+        <v>470.7561</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.8829</v>
+        <v>0.004</v>
       </c>
       <c r="B29" s="0">
-        <v>829.4244</v>
+        <v>452.2111</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.9107</v>
+        <v>0.0032</v>
       </c>
       <c r="B30" s="0">
-        <v>832.7428</v>
+        <v>430.8131</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.9385</v>
+        <v>0.0039</v>
       </c>
       <c r="B31" s="0">
-        <v>842.3187</v>
+        <v>398.0029</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.9663</v>
+        <v>0.0031</v>
       </c>
       <c r="B32" s="0">
-        <v>849.9984</v>
+        <v>373.7518</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.9898</v>
+        <v>0.0038</v>
       </c>
       <c r="B33" s="0">
-        <v>855.7646</v>
+        <v>353.7803</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.0019</v>
+        <v>0.0038</v>
       </c>
       <c r="B34" s="0">
-        <v>166.9044</v>
+        <v>332.3823</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.002</v>
+        <v>0.0038</v>
       </c>
       <c r="B35" s="0">
-        <v>198.2882</v>
+        <v>303.8516</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.0028</v>
+        <v>0.0037</v>
       </c>
       <c r="B36" s="0">
-        <v>232.525</v>
+        <v>272.4679</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.0029</v>
+        <v>0.002</v>
       </c>
       <c r="B37" s="0">
-        <v>269.6148</v>
+        <v>243.9372</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.0021</v>
+        <v>0.0028</v>
       </c>
       <c r="B38" s="0">
-        <v>303.8516</v>
+        <v>222.5392</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="B39" s="0">
-        <v>333.8088</v>
+        <v>201.1412</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.0023</v>
+        <v>0.0019</v>
       </c>
       <c r="B40" s="0">
-        <v>378.0314</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.0015</v>
-      </c>
-      <c r="B41" s="0">
-        <v>429.3866</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.0032</v>
-      </c>
-      <c r="B42" s="0">
-        <v>456.4907</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.0098</v>
-      </c>
-      <c r="B43" s="0">
-        <v>519.2582</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.032</v>
-      </c>
-      <c r="B44" s="0">
-        <v>584.8787</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.0598</v>
-      </c>
-      <c r="B45" s="0">
-        <v>627.6748</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.0885</v>
-      </c>
-      <c r="B46" s="0">
-        <v>649.0728</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.1171</v>
-      </c>
-      <c r="B47" s="0">
-        <v>666.1912</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.1531</v>
-      </c>
-      <c r="B48" s="0">
-        <v>681.883</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.1907</v>
-      </c>
-      <c r="B49" s="0">
-        <v>697.5749</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.2062</v>
-      </c>
-      <c r="B50" s="0">
-        <v>700.428</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.2569</v>
-      </c>
-      <c r="B51" s="0">
-        <v>714.6933</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.2929</v>
-      </c>
-      <c r="B52" s="0">
-        <v>726.1056</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.3084</v>
-      </c>
-      <c r="B53" s="0">
-        <v>727.5321</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.4015</v>
-      </c>
-      <c r="B54" s="0">
-        <v>747.5036</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.4914</v>
-      </c>
-      <c r="B55" s="0">
-        <v>764.622</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
-        <v>0.5053</v>
-      </c>
-      <c r="B56" s="0">
-        <v>763.1954</v>
-      </c>
-    </row>
-    <row r="57"/>
+        <v>172.6106</v>
+      </c>
+    </row>
+    <row r="41"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 93 Adsorption of methylene blue/Data93_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 93 Adsorption of methylene blue/Data93_all_graphs_excel.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 1 Default Dataset  0-1-0" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 Default Dataset  0&amp;1&amp;0" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -156,12 +156,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 Default Dataset  0-1-0'!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 Default Dataset  0&amp;1&amp;0'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 Default Dataset  0-1-0'!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 Default Dataset  0&amp;1&amp;0'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
